--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual Studio\C++\Orange\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2E00F6-F7AA-4D65-9882-00C3F2FA7DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F90CFF-E936-46AD-9484-DA384ED5D14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Shader Class</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>End</t>
+  </si>
+  <si>
+    <t>Camera</t>
   </si>
 </sst>
 </file>
@@ -463,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,12 +536,18 @@
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -546,6 +555,9 @@
       </c>
       <c r="B7" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -553,12 +565,24 @@
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{EEA2F99E-DF0D-4614-A08C-F4695B8D98E9}">

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual Studio\C++\Orange\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F90CFF-E936-46AD-9484-DA384ED5D14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4152587C-E806-4F83-8082-A7E11E0A9238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="270" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>Shader Class</t>
   </si>
@@ -85,6 +85,18 @@
   </si>
   <si>
     <t>Camera</t>
+  </si>
+  <si>
+    <t>Tiles</t>
+  </si>
+  <si>
+    <t>Tile Class</t>
+  </si>
+  <si>
+    <t>Tileset Class</t>
+  </si>
+  <si>
+    <t>Tilemap Class</t>
   </si>
 </sst>
 </file>
@@ -158,7 +170,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -168,6 +180,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -466,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,7 +510,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -509,7 +524,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
@@ -521,7 +536,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -530,7 +545,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -541,7 +556,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -550,7 +565,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -561,7 +576,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
@@ -570,7 +585,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
@@ -578,11 +593,32 @@
         <v>5</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{EEA2F99E-DF0D-4614-A08C-F4695B8D98E9}">

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual Studio\C++\Orange\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4152587C-E806-4F83-8082-A7E11E0A9238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A65E70-0CD3-4D49-90B4-2AD43FD34B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="270" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>Shader Class</t>
   </si>
@@ -483,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,17 +600,26 @@
       <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual Studio\C++\Orange\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A65E70-0CD3-4D49-90B4-2AD43FD34B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F09160-A302-4BB8-BA80-A4AF91FFD90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>Shader Class</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Tilemap Class</t>
+  </si>
+  <si>
+    <t>UUID</t>
   </si>
 </sst>
 </file>
@@ -481,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,6 +622,14 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual Studio\C++\Orange\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F09160-A302-4BB8-BA80-A4AF91FFD90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519A3006-0D0A-49DE-B659-67B0BDF3C108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>Shader Class</t>
   </si>
@@ -100,6 +100,15 @@
   </si>
   <si>
     <t>UUID</t>
+  </si>
+  <si>
+    <t>Timer</t>
+  </si>
+  <si>
+    <t>App</t>
+  </si>
+  <si>
+    <t>FPS; DeltaTime</t>
   </si>
 </sst>
 </file>
@@ -484,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,6 +639,25 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual Studio\C++\Orange\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519A3006-0D0A-49DE-B659-67B0BDF3C108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A760C877-A760-47C3-B26E-64AC95FE686E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="79">
   <si>
     <t>Shader Class</t>
   </si>
@@ -109,6 +109,168 @@
   </si>
   <si>
     <t>FPS; DeltaTime</t>
+  </si>
+  <si>
+    <t>Animation</t>
+  </si>
+  <si>
+    <t>Scripting</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Script Loader</t>
+  </si>
+  <si>
+    <t>Reflection</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Collider</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>Circle</t>
+  </si>
+  <si>
+    <t>Triangle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collision </t>
+  </si>
+  <si>
+    <t>Detection</t>
+  </si>
+  <si>
+    <t>Callbacks</t>
+  </si>
+  <si>
+    <t>Gravity</t>
+  </si>
+  <si>
+    <t>Force Applying</t>
+  </si>
+  <si>
+    <t>Particle System</t>
+  </si>
+  <si>
+    <t>Editor</t>
+  </si>
+  <si>
+    <t>Undo/Redo</t>
+  </si>
+  <si>
+    <t>User Interface(UI)</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Text Rendering</t>
+  </si>
+  <si>
+    <t>Canvas</t>
+  </si>
+  <si>
+    <t>Menu Screen</t>
+  </si>
+  <si>
+    <t>Runtime</t>
+  </si>
+  <si>
+    <t>Play/Stop</t>
+  </si>
+  <si>
+    <t>Scene Runtime</t>
+  </si>
+  <si>
+    <t>Copy Scene</t>
+  </si>
+  <si>
+    <t>Delete the Copy</t>
+  </si>
+  <si>
+    <t>Serialization</t>
+  </si>
+  <si>
+    <t>Cinematics</t>
+  </si>
+  <si>
+    <t>Audio</t>
+  </si>
+  <si>
+    <t>Playback</t>
+  </si>
+  <si>
+    <t>wav</t>
+  </si>
+  <si>
+    <t>mp3</t>
+  </si>
+  <si>
+    <t>Trigger</t>
+  </si>
+  <si>
+    <t>Effects</t>
+  </si>
+  <si>
+    <t>Asset System</t>
+  </si>
+  <si>
+    <t>Load/Unload</t>
+  </si>
+  <si>
+    <t>Editor hot reloading</t>
+  </si>
+  <si>
+    <t>Platform Support</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Controllers</t>
+  </si>
+  <si>
+    <t>Gamepads</t>
+  </si>
+  <si>
+    <t>Networking</t>
+  </si>
+  <si>
+    <t>Multiplayer</t>
+  </si>
+  <si>
+    <t>Optimization</t>
+  </si>
+  <si>
+    <t>Multi-threaded</t>
+  </si>
+  <si>
+    <t>GPU offloading</t>
+  </si>
+  <si>
+    <t>Profiling (Optik)</t>
+  </si>
+  <si>
+    <t>Resources</t>
   </si>
 </sst>
 </file>
@@ -182,7 +344,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -196,11 +358,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -221,8 +389,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BCF24472-AEC5-47A3-B97B-751B6748F3DF}" name="Table1" displayName="Table1" ref="E1:E4" totalsRowShown="0">
-  <autoFilter ref="E1:E4" xr:uid="{BCF24472-AEC5-47A3-B97B-751B6748F3DF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BCF24472-AEC5-47A3-B97B-751B6748F3DF}" name="Table1" displayName="Table1" ref="F1:F4" totalsRowShown="0">
+  <autoFilter ref="F1:F4" xr:uid="{BCF24472-AEC5-47A3-B97B-751B6748F3DF}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{0C34CF43-8DC1-44A3-BF64-581FB3E455DB}" name="States"/>
   </tableColumns>
@@ -493,184 +661,471 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="26.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
       <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>5</v>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="B42" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="B45" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="B46" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" s="7"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="16">
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A21:A27"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{EEA2F99E-DF0D-4614-A08C-F4695B8D98E9}">
-      <formula1>$E$2:$E$4</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{EEA2F99E-DF0D-4614-A08C-F4695B8D98E9}">
+      <formula1>$F$2:$F$4</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual Studio\C++\Orange\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A760C877-A760-47C3-B26E-64AC95FE686E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850A630D-5857-4210-9009-CC7F14B1427A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
   <si>
     <t>Shader Class</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>Resources</t>
+  </si>
+  <si>
+    <t>Textures</t>
   </si>
 </sst>
 </file>
@@ -664,7 +667,7 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,17 +957,17 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>50</v>
       </c>
@@ -975,31 +978,31 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>57</v>
       </c>
@@ -1010,46 +1013,52 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>66</v>
       </c>
@@ -1057,7 +1066,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="2" t="s">
         <v>67</v>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual Studio\C++\Orange\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A760C877-A760-47C3-B26E-64AC95FE686E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287F4233-D91A-4439-B43C-B1C83B085959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
   <si>
     <t>Shader Class</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>Resources</t>
+  </si>
+  <si>
+    <t>Textures</t>
   </si>
 </sst>
 </file>
@@ -361,14 +364,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -664,7 +667,7 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,7 +695,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -954,17 +957,17 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>50</v>
       </c>
@@ -975,31 +978,31 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>57</v>
       </c>
@@ -1010,55 +1013,61 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
       <c r="B48" s="2" t="s">
         <v>67</v>
       </c>
@@ -1067,7 +1076,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
+      <c r="A49" s="6"/>
       <c r="B49" s="7" t="s">
         <v>69</v>
       </c>
@@ -1106,22 +1115,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A21:A27"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="A44:A46"/>
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{EEA2F99E-DF0D-4614-A08C-F4695B8D98E9}">

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual Studio\C++\Orange\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850A630D-5857-4210-9009-CC7F14B1427A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86460035-339E-4646-8CF9-CF62E4DC60DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="83">
   <si>
     <t>Shader Class</t>
   </si>
@@ -274,6 +274,15 @@
   </si>
   <si>
     <t>Textures</t>
+  </si>
+  <si>
+    <t>Editor Project</t>
+  </si>
+  <si>
+    <t>Tileset View</t>
+  </si>
+  <si>
+    <t>Tilemap Creator</t>
   </si>
 </sst>
 </file>
@@ -347,7 +356,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -364,14 +373,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -664,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,7 +707,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -709,7 +721,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
@@ -721,7 +733,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -730,7 +742,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -741,7 +753,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -750,7 +762,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -761,7 +773,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
@@ -770,7 +782,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
@@ -779,7 +791,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -790,7 +802,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
@@ -799,7 +811,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
@@ -840,10 +852,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -851,15 +863,15 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -867,17 +879,17 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -885,22 +897,22 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7" t="s">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -908,20 +920,20 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
+      <c r="A26" s="8"/>
       <c r="B26" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
+      <c r="A27" s="8"/>
       <c r="B27" s="2" t="s">
         <v>40</v>
       </c>
@@ -932,205 +944,239 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B38" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="5" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="5" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B43" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="5" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="2" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="2" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="2" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D44" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="B52" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C52" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="8"/>
+      <c r="C53" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="7"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="B54" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="2" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="8"/>
+      <c r="B56" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="2" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="8"/>
+      <c r="B57" s="2" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A40:A43"/>
+  <mergeCells count="20">
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A33:A37"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="A21:A27"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A50:A51"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{EEA2F99E-DF0D-4614-A08C-F4695B8D98E9}">

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual Studio\C++\Orange\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86460035-339E-4646-8CF9-CF62E4DC60DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124816D0-BE45-4710-B718-89608044579C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="86">
   <si>
     <t>Shader Class</t>
   </si>
@@ -283,6 +283,15 @@
   </si>
   <si>
     <t>Tilemap Creator</t>
+  </si>
+  <si>
+    <t>GameObject</t>
+  </si>
+  <si>
+    <t>Components</t>
+  </si>
+  <si>
+    <t>Rigidbody</t>
   </si>
 </sst>
 </file>
@@ -356,7 +365,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -378,6 +387,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -676,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,7 +719,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -721,7 +733,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
@@ -733,7 +745,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -742,7 +754,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -753,7 +765,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
@@ -762,7 +774,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -773,7 +785,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
@@ -782,7 +794,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
@@ -791,7 +803,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -802,7 +814,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
@@ -811,7 +823,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
@@ -853,330 +865,341 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B18" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="5" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="5" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B22" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="5" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="5" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="5" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="2" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="2" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="2" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="6"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="6" t="s">
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
+      <c r="B32" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="6"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="6" t="s">
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="B33" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="2" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+      <c r="B35" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="2" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="B36" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="2" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
+      <c r="B37" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="2" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B39" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="5" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="5" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="5" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B44" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="5" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="B45" s="2" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="9"/>
+      <c r="B46" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="B46" s="2" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="9"/>
+      <c r="B47" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B48" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="D47" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="D48" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="9"/>
       <c r="B49" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="9"/>
+      <c r="B50" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-      <c r="B51" s="2" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="9"/>
+      <c r="B52" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
-      <c r="B52" s="8" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+      <c r="B53" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C53" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="8"/>
-      <c r="C53" s="5" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="9"/>
+      <c r="C54" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
-      <c r="B56" s="2" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="9"/>
+      <c r="B57" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
-      <c r="B57" s="2" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="9"/>
+      <c r="B58" s="2" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A30:A33"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A34:A38"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{EEA2F99E-DF0D-4614-A08C-F4695B8D98E9}">
